--- a/forecast_summary_B0BSP61QZC.xlsx
+++ b/forecast_summary_B0BSP61QZC.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
         <v>65.42768987638829</v>
       </c>
       <c r="D2" t="n">
-        <v>110.4300294138257</v>
+        <v>107.4910811183967</v>
       </c>
       <c r="E2" t="n">
         <v>67</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
         <v>58.72203662856591</v>
       </c>
       <c r="D3" t="n">
-        <v>101.2470885923253</v>
+        <v>103.5165707325019</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
         <v>48.92338233969148</v>
       </c>
       <c r="D4" t="n">
-        <v>87.57251730271031</v>
+        <v>91.62727064793719</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
         <v>39.12488932328409</v>
       </c>
       <c r="D5" t="n">
-        <v>83.12616574315794</v>
+        <v>82.14097491644034</v>
       </c>
       <c r="E5" t="n">
         <v>51</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>33.37310603838932</v>
       </c>
       <c r="D6" t="n">
-        <v>76.56999030938968</v>
+        <v>77.17548921718235</v>
       </c>
       <c r="E6" t="n">
         <v>46</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>33.50810771856252</v>
       </c>
       <c r="D7" t="n">
-        <v>78.24407782073146</v>
+        <v>77.9587472660386</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>36.98594588881303</v>
       </c>
       <c r="D8" t="n">
-        <v>81.87702124989667</v>
+        <v>80.5394962613087</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
         <v>38.79543267295455</v>
       </c>
       <c r="D9" t="n">
-        <v>85.36210170415895</v>
+        <v>82.17855429059897</v>
       </c>
       <c r="E9" t="n">
         <v>47</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
         <v>36.00792577973679</v>
       </c>
       <c r="D10" t="n">
-        <v>79.51862504500451</v>
+        <v>81.20096534574893</v>
       </c>
       <c r="E10" t="n">
         <v>46</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>30.18536836872784</v>
       </c>
       <c r="D11" t="n">
-        <v>76.67304706626565</v>
+        <v>72.28031380744231</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>25.1057675928049</v>
       </c>
       <c r="D12" t="n">
-        <v>68.21982304013264</v>
+        <v>69.89529865380912</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>22.52709248983968</v>
       </c>
       <c r="D13" t="n">
-        <v>65.56688262653778</v>
+        <v>65.16311892444382</v>
       </c>
       <c r="E13" t="n">
         <v>47</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
         <v>20.74116339121045</v>
       </c>
       <c r="D14" t="n">
-        <v>65.87097882308612</v>
+        <v>63.73624268776292</v>
       </c>
       <c r="E14" t="n">
         <v>46</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
         <v>17.1820982309181</v>
       </c>
       <c r="D15" t="n">
-        <v>59.92798233045148</v>
+        <v>63.50604844842624</v>
       </c>
       <c r="E15" t="n">
         <v>45</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>11.69212570512076</v>
       </c>
       <c r="D16" t="n">
-        <v>58.98505324722262</v>
+        <v>57.79150757929741</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>6.678286489978336</v>
       </c>
       <c r="D17" t="n">
-        <v>48.04603736915946</v>
+        <v>53.20892083671248</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>4.346123481757333</v>
       </c>
       <c r="D18" t="n">
-        <v>53.0427945513746</v>
+        <v>47.51577470713167</v>
       </c>
       <c r="E18" t="n">
         <v>41</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>4.464872904838409</v>
       </c>
       <c r="D19" t="n">
-        <v>49.32950382303802</v>
+        <v>49.5525613887184</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>5.032838782576619</v>
       </c>
       <c r="D20" t="n">
-        <v>46.58679285576732</v>
+        <v>47.05903006451137</v>
       </c>
       <c r="E20" t="n">
         <v>44</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>4.605349742827051</v>
       </c>
       <c r="D21" t="n">
-        <v>45.3816778382386</v>
+        <v>49.92219535503882</v>
       </c>
       <c r="E21" t="n">
         <v>41</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M DS3H AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>806</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
